--- a/data/trans_orig/P78DS4_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78DS4_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C387796E-EF50-43E5-A48B-B9BDA524DE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BB0B7F1-2198-465B-93C5-0B8D03CE01BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A071BA5D-41E7-4EF0-8010-BE3E667F4A5E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{50F6B9C9-BD7C-49BD-944B-6F235491C730}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="73">
   <si>
     <t>Población según si en los últimos 12 meses ha tenido algún retraso en el pago de recibos como la hipoteca, el alquiler, o suministros como la luz, el agua, impuestos / respuesta 4 en 2023 (Tasa respuesta: 95,8%)</t>
   </si>
@@ -143,6 +143,9 @@
     <t>0,06%</t>
   </si>
   <si>
+    <t>0,36%</t>
+  </si>
+  <si>
     <t>0,03%</t>
   </si>
   <si>
@@ -152,106 +155,100 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,31%</t>
+    <t>0,34%</t>
   </si>
   <si>
     <t>0,04%</t>
   </si>
   <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
   </si>
   <si>
     <t>99,94%</t>
   </si>
   <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
   </si>
   <si>
     <t>99,98%</t>
@@ -669,7 +666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E0B002-637E-4A7B-95D6-74E251B3BDA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27B5151-F703-4252-BB88-C989FC8C072C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1430,7 +1427,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -1439,13 +1436,13 @@
         <v>637</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1475,13 +1472,13 @@
         <v>777</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -1490,13 +1487,13 @@
         <v>777</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1541,7 +1538,7 @@
         <v>696</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
@@ -1598,7 +1595,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1634,7 +1631,7 @@
         <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="M20" s="7">
         <v>2390</v>
@@ -1643,13 +1640,13 @@
         <v>2030942</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1705,7 +1702,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1723,7 +1720,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -1738,7 +1735,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -1774,7 +1771,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -1783,13 +1780,13 @@
         <v>840</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -1798,13 +1795,13 @@
         <v>840</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1825,7 +1822,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -1840,7 +1837,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -1876,7 +1873,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -1891,7 +1888,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -1924,7 +1921,7 @@
         <v>20</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>22</v>
@@ -1936,10 +1933,10 @@
         <v>833731</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>20</v>
@@ -1951,10 +1948,10 @@
         <v>1534732</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>20</v>
@@ -2013,7 +2010,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2061,7 +2058,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2112,7 +2109,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,7 +2160,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2199,7 +2196,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2208,13 +2205,13 @@
         <v>729</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,10 +2241,10 @@
         <v>1078753</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>20</v>
@@ -2259,10 +2256,10 @@
         <v>2001570</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>20</v>
@@ -2348,13 +2345,13 @@
         <v>637</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -2363,13 +2360,13 @@
         <v>637</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2396,13 @@
         <v>1617</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -2414,13 +2411,13 @@
         <v>1617</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,13 +2447,13 @@
         <v>696</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -2465,13 +2462,13 @@
         <v>696</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2501,13 +2498,13 @@
         <v>729</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -2516,13 +2513,13 @@
         <v>729</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,7 +2537,7 @@
         <v>20</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>22</v>
@@ -2552,13 +2549,13 @@
         <v>3651923</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M38" s="7">
         <v>8371</v>
@@ -2567,13 +2564,13 @@
         <v>6926746</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,7 +2626,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78DS4_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78DS4_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BB0B7F1-2198-465B-93C5-0B8D03CE01BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{124E5739-8D41-4B67-88AF-F7FFFCC8E764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{50F6B9C9-BD7C-49BD-944B-6F235491C730}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B2ED4D88-6DCC-4256-A615-BEBA3889C56D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otros</t>
@@ -113,7 +113,7 @@
     <t>99,44%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,32%</t>
@@ -134,7 +134,7 @@
     <t>99,88%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,21%</t>
@@ -185,7 +185,7 @@
     <t>99,97%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -666,7 +666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27B5151-F703-4252-BB88-C989FC8C072C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BD192B-E025-4F56-8440-ACC5A96E639E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
